--- a/data/trdrec_from_trdclient/925_c_hait_1601.xlsx
+++ b/data/trdrec_from_trdclient/925_c_hait_1601.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>资金</t>
   </si>
@@ -58,10 +58,10 @@
     <t>0130121601</t>
   </si>
   <si>
+    <t>--</t>
+  </si>
+  <si>
     <t>港币</t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
   <si>
     <t>美元</t>
@@ -600,28 +600,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>2026.21</v>
+        <v>20676.77</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>20676.77</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>20676.77</v>
       </c>
       <c r="F3" s="3">
-        <v>2026.21</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>5017647.62</v>
+        <v>200.01</v>
       </c>
       <c r="H3" s="3">
-        <v>5019673.83</v>
+        <v>20876.78</v>
       </c>
       <c r="I3" s="3">
-        <v>23157.13</v>
-      </c>
-      <c r="J3" s="3">
-        <v>-100.37</v>
+        <v>24360.08</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11" s="8">
         <v>0</v>
@@ -854,34 +854,34 @@
         <v>511990</v>
       </c>
       <c r="C12" s="10">
-        <v>50183</v>
+        <v>2</v>
       </c>
       <c r="D12" s="10">
-        <v>50183</v>
+        <v>2</v>
       </c>
       <c r="E12" s="10">
         <v>0</v>
       </c>
       <c r="F12" s="11">
-        <v>99.987</v>
+        <v>100.006</v>
       </c>
       <c r="G12" s="11">
-        <v>99.526</v>
+        <v>-12080.035</v>
       </c>
       <c r="H12" s="11">
-        <v>99.526</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
-        <v>5017647.62</v>
+        <v>200.01</v>
       </c>
       <c r="J12" s="11">
-        <v>23157.13</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-100.37</v>
+        <v>24360.08</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="L12" s="9">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>24</v>
